--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2491.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2491.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.394568397665987</v>
+        <v>1.326636672019958</v>
       </c>
       <c r="B1">
-        <v>3.519086581252673</v>
+        <v>1.07689368724823</v>
       </c>
       <c r="C1">
-        <v>4.725499195659301</v>
+        <v>4.310553550720215</v>
       </c>
       <c r="D1">
-        <v>3.185235338686883</v>
+        <v>2.430655241012573</v>
       </c>
       <c r="E1">
-        <v>2.432086296263205</v>
+        <v>0.7423865795135498</v>
       </c>
     </row>
   </sheetData>
